--- a/labs/lab03/artifacts/Права.xlsx
+++ b/labs/lab03/artifacts/Права.xlsx
@@ -50,28 +50,28 @@
     <t>-</t>
   </si>
   <si>
-    <t>100</t>
+    <t>010</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>200</t>
+    <t>020</t>
   </si>
   <si>
-    <t>300</t>
+    <t>030</t>
   </si>
   <si>
-    <t>400</t>
+    <t>040</t>
   </si>
   <si>
-    <t>500</t>
+    <t>050</t>
   </si>
   <si>
-    <t>600</t>
+    <t>060</t>
   </si>
   <si>
-    <t>700</t>
+    <t>070</t>
   </si>
   <si>
     <t>Операция</t>
@@ -142,7 +142,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border/>
     <border>
       <left style="thick">
@@ -447,14 +447,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -481,7 +473,7 @@
       </right>
     </border>
     <border>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -492,7 +484,7 @@
       </bottom>
     </border>
     <border>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
@@ -538,15 +530,15 @@
       </bottom>
     </border>
     <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <bottom style="medium">
@@ -646,7 +638,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="57">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -716,75 +708,72 @@
     <xf borderId="19" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="20" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="23" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="24" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf quotePrefix="1" borderId="20" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="23" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="24" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="25" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="30" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="31" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="32" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="33" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf quotePrefix="1" borderId="34" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="34" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="8" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf quotePrefix="1" borderId="35" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -792,22 +781,16 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="36" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="37" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf quotePrefix="1" borderId="36" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="38" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="38" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="39" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="40" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -822,9 +805,6 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="44" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="45" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1044,6 +1024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1146,11 +1127,11 @@
       <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>11</v>
+      <c r="H4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>11</v>
@@ -1220,7 +1201,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -1251,7 +1232,7 @@
       <c r="J7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1284,7 +1265,7 @@
         <v>11</v>
       </c>
       <c r="K8" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -1315,71 +1296,71 @@
       <c r="J9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>13</v>
+      <c r="D10" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="35" t="s">
+      <c r="D11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1387,7 +1368,7 @@
       <c r="B12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="24" t="s">
@@ -1411,7 +1392,7 @@
       <c r="J12" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="23" t="s">
+      <c r="K12" s="34" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1419,7 +1400,7 @@
       <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="24" t="s">
@@ -1443,7 +1424,7 @@
       <c r="J13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1451,7 +1432,7 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="20" t="s">
@@ -1476,14 +1457,14 @@
         <v>13</v>
       </c>
       <c r="K14" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="24" t="s">
@@ -1507,7 +1488,7 @@
       <c r="J15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="23" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1515,7 +1496,7 @@
       <c r="B16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="24" t="s">
@@ -1540,14 +1521,14 @@
         <v>11</v>
       </c>
       <c r="K16" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="24" t="s">
@@ -1571,40 +1552,40 @@
       <c r="J17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="25" t="s">
+      <c r="K17" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>13</v>
+      <c r="D18" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1614,28 +1595,28 @@
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="35" t="s">
+      <c r="D19" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1667,15 +1648,15 @@
       <c r="J20" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="24" t="s">
@@ -1699,12 +1680,12 @@
       <c r="J21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -1732,14 +1713,14 @@
         <v>13</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D23" s="24" t="s">
@@ -1763,12 +1744,12 @@
       <c r="J23" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="25" t="s">
+      <c r="K23" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -1796,14 +1777,14 @@
         <v>11</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="24" t="s">
@@ -1827,40 +1808,40 @@
       <c r="J25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K25" s="25" t="s">
+      <c r="K25" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="31" t="s">
-        <v>13</v>
+      <c r="D26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1870,28 +1851,28 @@
       <c r="C27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="35" t="s">
+      <c r="D27" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1923,12 +1904,12 @@
       <c r="J28" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -1955,12 +1936,12 @@
       <c r="J29" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K29" s="25" t="s">
+      <c r="K29" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -1988,11 +1969,11 @@
         <v>13</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -2019,12 +2000,12 @@
       <c r="J31" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="25" t="s">
+      <c r="K31" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -2052,11 +2033,11 @@
         <v>11</v>
       </c>
       <c r="K32" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="17" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -2083,1145 +2064,1148 @@
       <c r="J33" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J34" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>13</v>
+      <c r="D34" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="I34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J35" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="41"/>
+      <c r="D35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="39"/>
     </row>
     <row r="36">
-      <c r="A36" s="36"/>
-      <c r="B36" s="42" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J36" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L36" s="41"/>
+      <c r="D36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="39"/>
     </row>
     <row r="37">
-      <c r="A37" s="36"/>
-      <c r="B37" s="42" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J37" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="41"/>
+      <c r="D37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="39"/>
     </row>
     <row r="38">
-      <c r="A38" s="36"/>
-      <c r="B38" s="42" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I38" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J38" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K38" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L38" s="41"/>
+      <c r="D38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="39"/>
     </row>
     <row r="39">
-      <c r="A39" s="36"/>
-      <c r="B39" s="42" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I39" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J39" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="41"/>
+      <c r="D39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="39"/>
     </row>
     <row r="40">
-      <c r="A40" s="36"/>
-      <c r="B40" s="42" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J40" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L40" s="41"/>
+      <c r="D40" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="39"/>
     </row>
     <row r="41">
-      <c r="A41" s="36"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I41" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" s="41"/>
+      <c r="D41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="39"/>
     </row>
     <row r="42">
-      <c r="A42" s="36"/>
-      <c r="B42" s="48" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="49" t="s">
+      <c r="C42" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J42" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K42" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L42" s="41"/>
+      <c r="D42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L42" s="39"/>
     </row>
     <row r="43">
-      <c r="A43" s="36"/>
-      <c r="B43" s="37" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="38" t="s">
+      <c r="C43" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J43" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43" s="41"/>
+      <c r="D43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="39"/>
     </row>
     <row r="44">
-      <c r="A44" s="36"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L44" s="41"/>
+      <c r="D44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L44" s="39"/>
     </row>
     <row r="45">
-      <c r="A45" s="36"/>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="41"/>
+      <c r="D45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K45" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="39"/>
     </row>
     <row r="46">
-      <c r="A46" s="36"/>
-      <c r="B46" s="42" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J46" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L46" s="41"/>
+      <c r="D46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L46" s="39"/>
     </row>
     <row r="47">
-      <c r="A47" s="36"/>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="43" t="s">
+      <c r="C47" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I47" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47" s="41"/>
+      <c r="D47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="39"/>
     </row>
     <row r="48">
-      <c r="A48" s="36"/>
-      <c r="B48" s="42" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J48" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L48" s="41"/>
+      <c r="D48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L48" s="39"/>
     </row>
     <row r="49">
-      <c r="A49" s="36"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J49" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49" s="41"/>
+      <c r="D49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L49" s="39"/>
     </row>
     <row r="50">
-      <c r="A50" s="36"/>
-      <c r="B50" s="48" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J50" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K50" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L50" s="41"/>
+      <c r="D50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L50" s="39"/>
     </row>
     <row r="51">
-      <c r="A51" s="36"/>
-      <c r="B51" s="37" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J51" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="K51" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L51" s="41"/>
+      <c r="D51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K51" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L51" s="39"/>
     </row>
     <row r="52">
-      <c r="A52" s="36"/>
-      <c r="B52" s="42" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="43" t="s">
+      <c r="C52" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="41"/>
+      <c r="D52" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I52" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L52" s="39"/>
     </row>
     <row r="53">
-      <c r="A53" s="36"/>
-      <c r="B53" s="42" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J53" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L53" s="41"/>
+      <c r="D53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="39"/>
     </row>
     <row r="54">
-      <c r="A54" s="36"/>
-      <c r="B54" s="42" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="43" t="s">
+      <c r="C54" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J54" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K54" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L54" s="41"/>
+      <c r="D54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I54" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="39"/>
     </row>
     <row r="55">
-      <c r="A55" s="36"/>
-      <c r="B55" s="42" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="43" t="s">
+      <c r="C55" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I55" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J55" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="41"/>
+      <c r="D55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J55" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="39"/>
     </row>
     <row r="56">
-      <c r="A56" s="36"/>
-      <c r="B56" s="42" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L56" s="41"/>
+      <c r="D56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J56" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L56" s="39"/>
     </row>
     <row r="57">
-      <c r="A57" s="36"/>
-      <c r="B57" s="42" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J57" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="41"/>
+      <c r="D57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="39"/>
     </row>
     <row r="58">
-      <c r="A58" s="36"/>
-      <c r="B58" s="48" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J58" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K58" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L58" s="41"/>
+      <c r="D58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L58" s="39"/>
     </row>
     <row r="59">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="H59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="J59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="K59" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="41"/>
+      <c r="D59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="K59" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="L59" s="39"/>
     </row>
     <row r="60">
-      <c r="A60" s="36"/>
-      <c r="B60" s="42" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I60" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J60" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" s="41"/>
+      <c r="D60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="39"/>
     </row>
     <row r="61">
-      <c r="A61" s="36"/>
-      <c r="B61" s="42" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J61" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="41"/>
+      <c r="D61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="39"/>
     </row>
     <row r="62">
-      <c r="A62" s="36"/>
-      <c r="B62" s="42" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I62" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J62" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K62" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L62" s="41"/>
+      <c r="D62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I62" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="39"/>
     </row>
     <row r="63">
-      <c r="A63" s="36"/>
-      <c r="B63" s="42" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I63" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J63" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L63" s="41"/>
+      <c r="D63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L63" s="39"/>
     </row>
     <row r="64">
-      <c r="A64" s="36"/>
-      <c r="B64" s="42" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="43" t="s">
+      <c r="C64" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H64" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="I64" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J64" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="L64" s="41"/>
+      <c r="D64" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I64" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="39"/>
     </row>
     <row r="65">
-      <c r="A65" s="36"/>
-      <c r="B65" s="42" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="I65" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="J65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L65" s="41"/>
+      <c r="D65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="L65" s="39"/>
     </row>
     <row r="66">
-      <c r="A66" s="36"/>
-      <c r="B66" s="48" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C66" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="I66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="J66" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="K66" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="L66" s="41"/>
+      <c r="D66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="J66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="39"/>
     </row>
     <row r="67">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -3230,6 +3214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3241,7 +3226,7 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -3252,7 +3237,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -3263,7 +3248,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="13" t="s">
@@ -3274,7 +3259,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="52" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="13" t="s">
@@ -3285,55 +3270,58 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="52" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="52" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="55" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>